--- a/public/assets/data/Rental Data.xlsx
+++ b/public/assets/data/Rental Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Web Dev\React\tax-system\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8D589-A8E3-49D8-992A-7C8AF424C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB520B5B-6B39-4395-BDEA-03617E1AF24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD46763E-4B07-DA45-A19D-14D915A2C2CC}"/>
   </bookViews>
@@ -16,10 +16,18 @@
     <sheet name="Rent Place" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -582,10 +590,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,7 +913,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -969,7 +977,7 @@
       <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>27270</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1073,7 +1081,7 @@
       <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>18750</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1201,7 +1209,7 @@
       <c r="E11" s="7">
         <v>7</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>16790</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1377,7 +1385,7 @@
       <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>6270</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1457,7 +1465,7 @@
       <c r="E21" s="7">
         <v>7</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>8170</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1633,7 +1641,7 @@
       <c r="E28" s="7">
         <v>4</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="11">
         <v>1260</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1737,7 +1745,7 @@
       <c r="E32" s="7">
         <v>4</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="11">
         <v>13320</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1841,7 +1849,7 @@
       <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="11">
         <v>28500</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -1921,7 +1929,7 @@
       <c r="E39" s="7">
         <v>5</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="11">
         <v>2250</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -2049,7 +2057,7 @@
       <c r="E44" s="7">
         <v>4</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="11">
         <v>31200</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -2153,7 +2161,7 @@
       <c r="E48" s="7">
         <v>4</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="11">
         <v>59640</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -2257,7 +2265,7 @@
       <c r="E52" s="7">
         <v>4</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="11">
         <v>28800</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -2361,7 +2369,7 @@
       <c r="E56" s="7">
         <v>5</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="11">
         <v>36000</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -2489,7 +2497,7 @@
       <c r="E61" s="7">
         <v>5</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="11">
         <v>11000</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -2617,7 +2625,7 @@
       <c r="E66" s="7">
         <v>3</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="11">
         <v>2310</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -2697,7 +2705,7 @@
       <c r="E69" s="7">
         <v>4</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="11">
         <v>2880</v>
       </c>
       <c r="G69" s="4" t="s">
@@ -2801,7 +2809,7 @@
       <c r="E73" s="7">
         <v>3</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="11">
         <v>10395</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -2881,7 +2889,7 @@
       <c r="E76" s="7">
         <v>5</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="11">
         <v>475</v>
       </c>
       <c r="G76" s="4" t="s">
@@ -3009,7 +3017,7 @@
       <c r="E81" s="7">
         <v>4</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="11">
         <v>2880</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -3104,7 +3112,7 @@
       <c r="B85" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="7">
@@ -3113,7 +3121,7 @@
       <c r="E85" s="7">
         <v>5</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="11">
         <v>14950</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -3136,7 +3144,7 @@
       <c r="B86" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C86" s="11"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -3160,7 +3168,7 @@
       <c r="B87" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="11"/>
+      <c r="C87" s="10"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -3184,7 +3192,7 @@
       <c r="B88" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="11"/>
+      <c r="C88" s="10"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -3208,7 +3216,7 @@
       <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="11"/>
+      <c r="C89" s="10"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -3227,18 +3235,58 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="F81:F84"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="C85:C89"/>
     <mergeCell ref="F2:F5"/>
@@ -3255,58 +3303,18 @@
     <mergeCell ref="C69:C72"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="C76:C80"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
